--- a/billable hours.xlsx
+++ b/billable hours.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -31,30 +31,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
   <si>
     <t>Bruto</t>
   </si>
   <si>
-    <t>Neto</t>
-  </si>
-  <si>
-    <t>Opombe</t>
-  </si>
-  <si>
     <t>Januar</t>
   </si>
   <si>
     <t>Options</t>
-  </si>
-  <si>
-    <t>Mesec</t>
-  </si>
-  <si>
-    <t>Stranke</t>
-  </si>
-  <si>
-    <t>Tecaj</t>
   </si>
   <si>
     <t>Februar</t>
@@ -199,6 +184,18 @@
   </si>
   <si>
     <t>Company Name:</t>
+  </si>
+  <si>
+    <t>Clients</t>
+  </si>
+  <si>
+    <t>Course</t>
+  </si>
+  <si>
+    <t>Netto</t>
+  </si>
+  <si>
+    <t>Comments</t>
   </si>
 </sst>
 </file>
@@ -493,9 +490,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:C100" totalsRowShown="0">
   <autoFilter ref="A3:C100"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Mesec"/>
-    <tableColumn id="2" name="Stranke"/>
-    <tableColumn id="3" name="Tecaj"/>
+    <tableColumn id="1" name="Month"/>
+    <tableColumn id="2" name="Clients"/>
+    <tableColumn id="3" name="Course"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -766,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H110"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="A111" sqref="A111:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -780,7 +777,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A1" s="23" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -800,7 +797,7 @@
     </row>
     <row r="3" spans="1:8" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="24" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B3" s="25"/>
       <c r="C3" s="22"/>
@@ -811,7 +808,7 @@
     </row>
     <row r="4" spans="1:8" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="19" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="20"/>
@@ -830,46 +827,42 @@
     </row>
     <row r="7" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>0</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="12">
-        <v>10</v>
-      </c>
-      <c r="E8" s="12">
-        <v>5</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="13"/>
@@ -1993,10 +1986,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2024,8 +2017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2035,7 +2028,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A1" s="23" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="1"/>
@@ -2046,145 +2039,145 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
